--- a/ProbableCasesOverTimeByCounty/2021-02-15.xlsx
+++ b/ProbableCasesOverTimeByCounty/2021-02-15.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="364">
   <si>
-    <t>COVID-19 Probable Cases by County, 11/1/2020 - 02/14/21 at 9:30 AM CST</t>
+    <t>COVID-19 Probable Cases by County, 11/1/2020 - 02/15/21 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>Probable 2021-02-14</t>
+  </si>
+  <si>
+    <t>Probable 2021-02-15</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1323,6 +1326,7 @@
     <col min="105" max="105" width="12.0" customWidth="true"/>
     <col min="106" max="106" width="12.0" customWidth="true"/>
     <col min="107" max="107" width="12.0" customWidth="true"/>
+    <col min="108" max="108" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1657,10 +1661,13 @@
       <c r="DC3" t="s" s="10">
         <v>108</v>
       </c>
+      <c r="DD3" t="s" s="10">
+        <v>109</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B4" t="n">
         <v>343.0</v>
@@ -1978,12 +1985,15 @@
         <v>1233.0</v>
       </c>
       <c r="DC4" t="n">
+        <v>1237.0</v>
+      </c>
+      <c r="DD4" t="n">
         <v>1237.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2301,12 +2311,15 @@
         <v>0.0</v>
       </c>
       <c r="DC5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B6" t="n">
         <v>605.0</v>
@@ -2624,12 +2637,15 @@
         <v>3150.0</v>
       </c>
       <c r="DC6" t="n">
+        <v>3150.0</v>
+      </c>
+      <c r="DD6" t="n">
         <v>3150.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" t="n">
         <v>17.0</v>
@@ -2947,12 +2963,15 @@
         <v>294.0</v>
       </c>
       <c r="DC7" t="n">
+        <v>293.0</v>
+      </c>
+      <c r="DD7" t="n">
         <v>293.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B8" t="n">
         <v>27.0</v>
@@ -3270,12 +3289,15 @@
         <v>88.0</v>
       </c>
       <c r="DC8" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="DD8" t="n">
         <v>88.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B9" t="n">
         <v>2.0</v>
@@ -3593,12 +3615,15 @@
         <v>42.0</v>
       </c>
       <c r="DC9" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="DD9" t="n">
         <v>42.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B10" t="n">
         <v>223.0</v>
@@ -3916,12 +3941,15 @@
         <v>1167.0</v>
       </c>
       <c r="DC10" t="n">
+        <v>1167.0</v>
+      </c>
+      <c r="DD10" t="n">
         <v>1167.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B11" t="n">
         <v>44.0</v>
@@ -4240,11 +4268,14 @@
       </c>
       <c r="DC11" t="n">
         <v>261.0</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>262.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B12" t="n">
         <v>48.0</v>
@@ -4562,12 +4593,15 @@
         <v>209.0</v>
       </c>
       <c r="DC12" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="DD12" t="n">
         <v>209.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B13" t="n">
         <v>22.0</v>
@@ -4885,12 +4919,15 @@
         <v>278.0</v>
       </c>
       <c r="DC13" t="n">
+        <v>278.0</v>
+      </c>
+      <c r="DD13" t="n">
         <v>278.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B14" t="n">
         <v>339.0</v>
@@ -5208,12 +5245,15 @@
         <v>1824.0</v>
       </c>
       <c r="DC14" t="n">
+        <v>1824.0</v>
+      </c>
+      <c r="DD14" t="n">
         <v>1824.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B15" t="n">
         <v>60.0</v>
@@ -5531,12 +5571,15 @@
         <v>169.0</v>
       </c>
       <c r="DC15" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="DD15" t="n">
         <v>169.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B16" t="n">
         <v>28.0</v>
@@ -5854,12 +5897,15 @@
         <v>452.0</v>
       </c>
       <c r="DC16" t="n">
+        <v>457.0</v>
+      </c>
+      <c r="DD16" t="n">
         <v>457.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -6177,12 +6223,15 @@
         <v>0.0</v>
       </c>
       <c r="DC17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B18" t="n">
         <v>12314.0</v>
@@ -6500,12 +6549,15 @@
         <v>29122.0</v>
       </c>
       <c r="DC18" t="n">
+        <v>29208.0</v>
+      </c>
+      <c r="DD18" t="n">
         <v>29208.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" t="n">
         <v>17.0</v>
@@ -6823,12 +6875,15 @@
         <v>109.0</v>
       </c>
       <c r="DC19" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="DD19" t="n">
         <v>109.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B20" t="n">
         <v>2.0</v>
@@ -7146,12 +7201,15 @@
         <v>7.0</v>
       </c>
       <c r="DC20" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="DD20" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B21" t="n">
         <v>39.0</v>
@@ -7469,12 +7527,15 @@
         <v>280.0</v>
       </c>
       <c r="DC21" t="n">
+        <v>280.0</v>
+      </c>
+      <c r="DD21" t="n">
         <v>280.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B22" t="n">
         <v>457.0</v>
@@ -7793,11 +7854,14 @@
       </c>
       <c r="DC22" t="n">
         <v>1863.0</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>1871.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B23" t="n">
         <v>187.0</v>
@@ -8116,11 +8180,14 @@
       </c>
       <c r="DC23" t="n">
         <v>4533.0</v>
+      </c>
+      <c r="DD23" t="n">
+        <v>4585.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B24" t="n">
         <v>1120.0</v>
@@ -8438,12 +8505,15 @@
         <v>3479.0</v>
       </c>
       <c r="DC24" t="n">
+        <v>3479.0</v>
+      </c>
+      <c r="DD24" t="n">
         <v>3479.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B25" t="n">
         <v>10.0</v>
@@ -8762,11 +8832,14 @@
       </c>
       <c r="DC25" t="n">
         <v>77.0</v>
+      </c>
+      <c r="DD25" t="n">
+        <v>80.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B26" t="n">
         <v>7.0</v>
@@ -9084,12 +9157,15 @@
         <v>58.0</v>
       </c>
       <c r="DC26" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="DD26" t="n">
         <v>58.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B27" t="n">
         <v>19.0</v>
@@ -9407,12 +9483,15 @@
         <v>107.0</v>
       </c>
       <c r="DC27" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="DD27" t="n">
         <v>107.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B28" t="n">
         <v>350.0</v>
@@ -9730,12 +9809,15 @@
         <v>2119.0</v>
       </c>
       <c r="DC28" t="n">
+        <v>2119.0</v>
+      </c>
+      <c r="DD28" t="n">
         <v>2119.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B29" t="n">
         <v>52.0</v>
@@ -10053,12 +10135,15 @@
         <v>382.0</v>
       </c>
       <c r="DC29" t="n">
+        <v>382.0</v>
+      </c>
+      <c r="DD29" t="n">
         <v>382.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B30" t="n">
         <v>39.0</v>
@@ -10376,12 +10461,15 @@
         <v>387.0</v>
       </c>
       <c r="DC30" t="n">
+        <v>387.0</v>
+      </c>
+      <c r="DD30" t="n">
         <v>387.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B31" t="n">
         <v>51.0</v>
@@ -10699,12 +10787,15 @@
         <v>267.0</v>
       </c>
       <c r="DC31" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="DD31" t="n">
         <v>267.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B32" t="n">
         <v>14.0</v>
@@ -11022,12 +11113,15 @@
         <v>186.0</v>
       </c>
       <c r="DC32" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="DD32" t="n">
         <v>186.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B33" t="n">
         <v>89.0</v>
@@ -11345,12 +11439,15 @@
         <v>533.0</v>
       </c>
       <c r="DC33" t="n">
+        <v>533.0</v>
+      </c>
+      <c r="DD33" t="n">
         <v>533.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
@@ -11668,12 +11765,15 @@
         <v>0.0</v>
       </c>
       <c r="DC34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD34" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B35" t="n">
         <v>74.0</v>
@@ -11992,11 +12092,14 @@
       </c>
       <c r="DC35" t="n">
         <v>368.0</v>
+      </c>
+      <c r="DD35" t="n">
+        <v>369.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B36" t="n">
         <v>16.0</v>
@@ -12314,12 +12417,15 @@
         <v>141.0</v>
       </c>
       <c r="DC36" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="DD36" t="n">
         <v>141.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B37" t="n">
         <v>246.0</v>
@@ -12637,12 +12743,15 @@
         <v>639.0</v>
       </c>
       <c r="DC37" t="n">
+        <v>639.0</v>
+      </c>
+      <c r="DD37" t="n">
         <v>639.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B38" t="n">
         <v>52.0</v>
@@ -12960,12 +13069,15 @@
         <v>251.0</v>
       </c>
       <c r="DC38" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="DD38" t="n">
         <v>251.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
@@ -13283,12 +13395,15 @@
         <v>0.0</v>
       </c>
       <c r="DC39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD39" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B40" t="n">
         <v>512.0</v>
@@ -13606,12 +13721,15 @@
         <v>1780.0</v>
       </c>
       <c r="DC40" t="n">
+        <v>1780.0</v>
+      </c>
+      <c r="DD40" t="n">
         <v>1780.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B41" t="n">
         <v>22.0</v>
@@ -13929,12 +14047,15 @@
         <v>24.0</v>
       </c>
       <c r="DC41" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DD41" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B42" t="n">
         <v>7.0</v>
@@ -14252,12 +14373,15 @@
         <v>76.0</v>
       </c>
       <c r="DC42" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="DD42" t="n">
         <v>76.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B43" t="n">
         <v>7.0</v>
@@ -14575,12 +14699,15 @@
         <v>22.0</v>
       </c>
       <c r="DC43" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="DD43" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B44" t="n">
         <v>41.0</v>
@@ -14898,12 +15025,15 @@
         <v>224.0</v>
       </c>
       <c r="DC44" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="DD44" t="n">
         <v>224.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B45" t="n">
         <v>27.0</v>
@@ -15221,12 +15351,15 @@
         <v>231.0</v>
       </c>
       <c r="DC45" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="DD45" t="n">
         <v>231.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B46" t="n">
         <v>535.0</v>
@@ -15544,12 +15677,15 @@
         <v>12098.0</v>
       </c>
       <c r="DC46" t="n">
+        <v>12098.0</v>
+      </c>
+      <c r="DD46" t="n">
         <v>12098.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B47" t="n">
         <v>2.0</v>
@@ -15867,12 +16003,15 @@
         <v>70.0</v>
       </c>
       <c r="DC47" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="DD47" t="n">
         <v>70.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B48" t="n">
         <v>50.0</v>
@@ -16190,12 +16329,15 @@
         <v>239.0</v>
       </c>
       <c r="DC48" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="DD48" t="n">
         <v>239.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B49" t="n">
         <v>912.0</v>
@@ -16513,12 +16655,15 @@
         <v>4172.0</v>
       </c>
       <c r="DC49" t="n">
+        <v>4172.0</v>
+      </c>
+      <c r="DD49" t="n">
         <v>4172.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B50" t="n">
         <v>18.0</v>
@@ -16836,12 +16981,15 @@
         <v>246.0</v>
       </c>
       <c r="DC50" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="DD50" t="n">
         <v>246.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B51" t="n">
         <v>18.0</v>
@@ -17159,12 +17307,15 @@
         <v>137.0</v>
       </c>
       <c r="DC51" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="DD51" t="n">
         <v>137.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B52" t="n">
         <v>99.0</v>
@@ -17482,12 +17633,15 @@
         <v>394.0</v>
       </c>
       <c r="DC52" t="n">
+        <v>394.0</v>
+      </c>
+      <c r="DD52" t="n">
         <v>394.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B53" t="n">
         <v>34.0</v>
@@ -17805,12 +17959,15 @@
         <v>226.0</v>
       </c>
       <c r="DC53" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="DD53" t="n">
         <v>226.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B54" t="n">
         <v>23.0</v>
@@ -18128,12 +18285,15 @@
         <v>45.0</v>
       </c>
       <c r="DC54" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="DD54" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B55" t="n">
         <v>117.0</v>
@@ -18452,11 +18612,14 @@
       </c>
       <c r="DC55" t="n">
         <v>302.0</v>
+      </c>
+      <c r="DD55" t="n">
+        <v>303.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B56" t="n">
         <v>48.0</v>
@@ -18775,11 +18938,14 @@
       </c>
       <c r="DC56" t="n">
         <v>347.0</v>
+      </c>
+      <c r="DD56" t="n">
+        <v>349.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B57" t="n">
         <v>50.0</v>
@@ -19097,12 +19263,15 @@
         <v>196.0</v>
       </c>
       <c r="DC57" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="DD57" t="n">
         <v>196.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B58" t="n">
         <v>10.0</v>
@@ -19420,12 +19589,15 @@
         <v>23.0</v>
       </c>
       <c r="DC58" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DD58" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B59" t="n">
         <v>9.0</v>
@@ -19743,12 +19915,15 @@
         <v>49.0</v>
       </c>
       <c r="DC59" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="DD59" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B60" t="n">
         <v>5948.0</v>
@@ -20067,11 +20242,14 @@
       </c>
       <c r="DC60" t="n">
         <v>33517.0</v>
+      </c>
+      <c r="DD60" t="n">
+        <v>33657.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
@@ -20389,12 +20567,15 @@
         <v>0.0</v>
       </c>
       <c r="DC61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD61" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B62" t="n">
         <v>228.0</v>
@@ -20712,12 +20893,15 @@
         <v>640.0</v>
       </c>
       <c r="DC62" t="n">
+        <v>640.0</v>
+      </c>
+      <c r="DD62" t="n">
         <v>640.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B63" t="n">
         <v>22.0</v>
@@ -21035,12 +21219,15 @@
         <v>123.0</v>
       </c>
       <c r="DC63" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="DD63" t="n">
         <v>122.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B64" t="n">
         <v>2000.0</v>
@@ -21358,12 +21545,15 @@
         <v>13601.0</v>
       </c>
       <c r="DC64" t="n">
+        <v>13728.0</v>
+      </c>
+      <c r="DD64" t="n">
         <v>13728.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
@@ -21681,12 +21871,15 @@
         <v>0.0</v>
       </c>
       <c r="DC65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD65" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B66" t="n">
         <v>16.0</v>
@@ -22004,12 +22197,15 @@
         <v>57.0</v>
       </c>
       <c r="DC66" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="DD66" t="n">
         <v>57.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B67" t="n">
         <v>5.0</v>
@@ -22327,12 +22523,15 @@
         <v>140.0</v>
       </c>
       <c r="DC67" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="DD67" t="n">
         <v>140.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B68" t="n">
         <v>24.0</v>
@@ -22650,12 +22849,15 @@
         <v>174.0</v>
       </c>
       <c r="DC68" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="DD68" t="n">
         <v>174.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B69" t="n">
         <v>11.0</v>
@@ -22973,12 +23175,15 @@
         <v>92.0</v>
       </c>
       <c r="DC69" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="DD69" t="n">
         <v>92.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B70" t="n">
         <v>96.0</v>
@@ -23296,12 +23501,15 @@
         <v>332.0</v>
       </c>
       <c r="DC70" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="DD70" t="n">
         <v>332.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B71" t="n">
         <v>2566.0</v>
@@ -23619,12 +23827,15 @@
         <v>7455.0</v>
       </c>
       <c r="DC71" t="n">
+        <v>7455.0</v>
+      </c>
+      <c r="DD71" t="n">
         <v>7455.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
@@ -23942,12 +24153,15 @@
         <v>39.0</v>
       </c>
       <c r="DC72" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="DD72" t="n">
         <v>39.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B73" t="n">
         <v>533.0</v>
@@ -24265,12 +24479,15 @@
         <v>2596.0</v>
       </c>
       <c r="DC73" t="n">
+        <v>2596.0</v>
+      </c>
+      <c r="DD73" t="n">
         <v>2596.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
@@ -24588,12 +24805,15 @@
         <v>0.0</v>
       </c>
       <c r="DC74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD74" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B75" t="n">
         <v>383.0</v>
@@ -24911,12 +25131,15 @@
         <v>1221.0</v>
       </c>
       <c r="DC75" t="n">
+        <v>1221.0</v>
+      </c>
+      <c r="DD75" t="n">
         <v>1221.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B76" t="n">
         <v>23.0</v>
@@ -25234,12 +25457,15 @@
         <v>154.0</v>
       </c>
       <c r="DC76" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="DD76" t="n">
         <v>154.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B77" t="n">
         <v>41.0</v>
@@ -25557,12 +25783,15 @@
         <v>636.0</v>
       </c>
       <c r="DC77" t="n">
+        <v>636.0</v>
+      </c>
+      <c r="DD77" t="n">
         <v>636.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B78" t="n">
         <v>172.0</v>
@@ -25880,12 +26109,15 @@
         <v>842.0</v>
       </c>
       <c r="DC78" t="n">
+        <v>842.0</v>
+      </c>
+      <c r="DD78" t="n">
         <v>842.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
@@ -26203,12 +26435,15 @@
         <v>0.0</v>
       </c>
       <c r="DC79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B80" t="n">
         <v>85.0</v>
@@ -26526,12 +26761,15 @@
         <v>439.0</v>
       </c>
       <c r="DC80" t="n">
+        <v>439.0</v>
+      </c>
+      <c r="DD80" t="n">
         <v>439.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B81" t="n">
         <v>2.0</v>
@@ -26849,12 +27087,15 @@
         <v>32.0</v>
       </c>
       <c r="DC81" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="DD81" t="n">
         <v>32.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B82" t="n">
         <v>681.0</v>
@@ -27172,12 +27413,15 @@
         <v>6738.0</v>
       </c>
       <c r="DC82" t="n">
+        <v>6738.0</v>
+      </c>
+      <c r="DD82" t="n">
         <v>6738.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B83" t="n">
         <v>59.0</v>
@@ -27495,12 +27739,15 @@
         <v>202.0</v>
       </c>
       <c r="DC83" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="DD83" t="n">
         <v>202.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B84" t="n">
         <v>81.0</v>
@@ -27818,12 +28065,15 @@
         <v>689.0</v>
       </c>
       <c r="DC84" t="n">
+        <v>689.0</v>
+      </c>
+      <c r="DD84" t="n">
         <v>689.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B85" t="n">
         <v>38.0</v>
@@ -28141,12 +28391,15 @@
         <v>529.0</v>
       </c>
       <c r="DC85" t="n">
+        <v>529.0</v>
+      </c>
+      <c r="DD85" t="n">
         <v>529.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
@@ -28464,12 +28717,15 @@
         <v>0.0</v>
       </c>
       <c r="DC86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD86" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B87" t="n">
         <v>508.0</v>
@@ -28787,12 +29043,15 @@
         <v>4500.0</v>
       </c>
       <c r="DC87" t="n">
+        <v>4469.0</v>
+      </c>
+      <c r="DD87" t="n">
         <v>4469.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B88" t="n">
         <v>26.0</v>
@@ -29110,12 +29369,15 @@
         <v>147.0</v>
       </c>
       <c r="DC88" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="DD88" t="n">
         <v>147.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B89" t="n">
         <v>25.0</v>
@@ -29433,12 +29695,15 @@
         <v>681.0</v>
       </c>
       <c r="DC89" t="n">
+        <v>681.0</v>
+      </c>
+      <c r="DD89" t="n">
         <v>681.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B90" t="n">
         <v>19.0</v>
@@ -29756,12 +30021,15 @@
         <v>62.0</v>
       </c>
       <c r="DC90" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="DD90" t="n">
         <v>62.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B91" t="n">
         <v>46.0</v>
@@ -30079,12 +30347,15 @@
         <v>133.0</v>
       </c>
       <c r="DC91" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="DD91" t="n">
         <v>133.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B92" t="n">
         <v>36.0</v>
@@ -30402,12 +30673,15 @@
         <v>238.0</v>
       </c>
       <c r="DC92" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="DD92" t="n">
         <v>238.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B93" t="n">
         <v>34.0</v>
@@ -30725,12 +30999,15 @@
         <v>276.0</v>
       </c>
       <c r="DC93" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="DD93" t="n">
         <v>276.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
@@ -31048,12 +31325,15 @@
         <v>0.0</v>
       </c>
       <c r="DC94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD94" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B95" t="n">
         <v>919.0</v>
@@ -31371,12 +31651,15 @@
         <v>4623.0</v>
       </c>
       <c r="DC95" t="n">
+        <v>4665.0</v>
+      </c>
+      <c r="DD95" t="n">
         <v>4665.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B96" t="n">
         <v>50.0</v>
@@ -31694,12 +31977,15 @@
         <v>290.0</v>
       </c>
       <c r="DC96" t="n">
+        <v>290.0</v>
+      </c>
+      <c r="DD96" t="n">
         <v>290.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B97" t="n">
         <v>387.0</v>
@@ -32017,12 +32303,15 @@
         <v>2728.0</v>
       </c>
       <c r="DC97" t="n">
+        <v>2728.0</v>
+      </c>
+      <c r="DD97" t="n">
         <v>2728.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -32340,12 +32629,15 @@
         <v>0.0</v>
       </c>
       <c r="DC98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD98" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B99" t="n">
         <v>9.0</v>
@@ -32663,12 +32955,15 @@
         <v>98.0</v>
       </c>
       <c r="DC99" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="DD99" t="n">
         <v>98.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B100" t="n">
         <v>15.0</v>
@@ -32986,12 +33281,15 @@
         <v>46.0</v>
       </c>
       <c r="DC100" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="DD100" t="n">
         <v>46.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B101" t="n">
         <v>61.0</v>
@@ -33309,12 +33607,15 @@
         <v>434.0</v>
       </c>
       <c r="DC101" t="n">
+        <v>434.0</v>
+      </c>
+      <c r="DD101" t="n">
         <v>434.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B102" t="n">
         <v>25.0</v>
@@ -33632,12 +33933,15 @@
         <v>55.0</v>
       </c>
       <c r="DC102" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="DD102" t="n">
         <v>55.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B103" t="n">
         <v>505.0</v>
@@ -33955,12 +34259,15 @@
         <v>2347.0</v>
       </c>
       <c r="DC103" t="n">
+        <v>2347.0</v>
+      </c>
+      <c r="DD103" t="n">
         <v>2347.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
@@ -34278,12 +34585,15 @@
         <v>0.0</v>
       </c>
       <c r="DC104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD104" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B105" t="n">
         <v>289.0</v>
@@ -34602,11 +34912,14 @@
       </c>
       <c r="DC105" t="n">
         <v>2138.0</v>
+      </c>
+      <c r="DD105" t="n">
+        <v>2143.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B106" t="n">
         <v>4.0</v>
@@ -34924,12 +35237,15 @@
         <v>57.0</v>
       </c>
       <c r="DC106" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="DD106" t="n">
         <v>57.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B107" t="n">
         <v>30.0</v>
@@ -35247,12 +35563,15 @@
         <v>231.0</v>
       </c>
       <c r="DC107" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="DD107" t="n">
         <v>231.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B108" t="n">
         <v>743.0</v>
@@ -35570,12 +35889,15 @@
         <v>1761.0</v>
       </c>
       <c r="DC108" t="n">
+        <v>1761.0</v>
+      </c>
+      <c r="DD108" t="n">
         <v>1761.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B109" t="n">
         <v>5.0</v>
@@ -35893,12 +36215,15 @@
         <v>40.0</v>
       </c>
       <c r="DC109" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="DD109" t="n">
         <v>40.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B110" t="n">
         <v>392.0</v>
@@ -36216,12 +36541,15 @@
         <v>1721.0</v>
       </c>
       <c r="DC110" t="n">
+        <v>1747.0</v>
+      </c>
+      <c r="DD110" t="n">
         <v>1747.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
@@ -36539,12 +36867,15 @@
         <v>21989.0</v>
       </c>
       <c r="DC111" t="n">
+        <v>21989.0</v>
+      </c>
+      <c r="DD111" t="n">
         <v>21989.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B112" t="n">
         <v>90.0</v>
@@ -36862,12 +37193,15 @@
         <v>634.0</v>
       </c>
       <c r="DC112" t="n">
+        <v>634.0</v>
+      </c>
+      <c r="DD112" t="n">
         <v>634.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B113" t="n">
         <v>77.0</v>
@@ -37185,12 +37519,15 @@
         <v>264.0</v>
       </c>
       <c r="DC113" t="n">
+        <v>264.0</v>
+      </c>
+      <c r="DD113" t="n">
         <v>264.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B114" t="n">
         <v>235.0</v>
@@ -37508,12 +37845,15 @@
         <v>2010.0</v>
       </c>
       <c r="DC114" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="DD114" t="n">
         <v>2010.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B115" t="n">
         <v>475.0</v>
@@ -37832,11 +38172,14 @@
       </c>
       <c r="DC115" t="n">
         <v>1363.0</v>
+      </c>
+      <c r="DD115" t="n">
+        <v>1364.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B116" t="n">
         <v>175.0</v>
@@ -38154,12 +38497,15 @@
         <v>665.0</v>
       </c>
       <c r="DC116" t="n">
+        <v>672.0</v>
+      </c>
+      <c r="DD116" t="n">
         <v>672.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B117" t="n">
         <v>709.0</v>
@@ -38477,12 +38823,15 @@
         <v>1499.0</v>
       </c>
       <c r="DC117" t="n">
+        <v>1499.0</v>
+      </c>
+      <c r="DD117" t="n">
         <v>1499.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B118" t="n">
         <v>9.0</v>
@@ -38801,11 +39150,14 @@
       </c>
       <c r="DC118" t="n">
         <v>79.0</v>
+      </c>
+      <c r="DD118" t="n">
+        <v>82.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
@@ -39123,12 +39475,15 @@
         <v>0.0</v>
       </c>
       <c r="DC119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD119" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B120" t="n">
         <v>98.0</v>
@@ -39446,12 +39801,15 @@
         <v>464.0</v>
       </c>
       <c r="DC120" t="n">
+        <v>464.0</v>
+      </c>
+      <c r="DD120" t="n">
         <v>464.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B121" t="n">
         <v>12.0</v>
@@ -39769,12 +40127,15 @@
         <v>59.0</v>
       </c>
       <c r="DC121" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="DD121" t="n">
         <v>59.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B122" t="n">
         <v>11.0</v>
@@ -40092,12 +40453,15 @@
         <v>74.0</v>
       </c>
       <c r="DC122" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="DD122" t="n">
         <v>74.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B123" t="n">
         <v>3.0</v>
@@ -40415,12 +40779,15 @@
         <v>158.0</v>
       </c>
       <c r="DC123" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="DD123" t="n">
         <v>158.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B124" t="n">
         <v>357.0</v>
@@ -40738,12 +41105,15 @@
         <v>1347.0</v>
       </c>
       <c r="DC124" t="n">
+        <v>1347.0</v>
+      </c>
+      <c r="DD124" t="n">
         <v>1347.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B125" t="n">
         <v>4.0</v>
@@ -41061,12 +41431,15 @@
         <v>37.0</v>
       </c>
       <c r="DC125" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="DD125" t="n">
         <v>37.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -41384,12 +41757,15 @@
         <v>0.0</v>
       </c>
       <c r="DC126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD126" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B127" t="n">
         <v>2.0</v>
@@ -41707,12 +42083,15 @@
         <v>36.0</v>
       </c>
       <c r="DC127" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="DD127" t="n">
         <v>37.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B128" t="n">
         <v>50.0</v>
@@ -42030,12 +42409,15 @@
         <v>506.0</v>
       </c>
       <c r="DC128" t="n">
+        <v>509.0</v>
+      </c>
+      <c r="DD128" t="n">
         <v>509.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B129" t="n">
         <v>353.0</v>
@@ -42353,12 +42735,15 @@
         <v>2332.0</v>
       </c>
       <c r="DC129" t="n">
+        <v>2332.0</v>
+      </c>
+      <c r="DD129" t="n">
         <v>2332.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B130" t="n">
         <v>121.0</v>
@@ -42676,12 +43061,15 @@
         <v>651.0</v>
       </c>
       <c r="DC130" t="n">
+        <v>651.0</v>
+      </c>
+      <c r="DD130" t="n">
         <v>651.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B131" t="n">
         <v>25.0</v>
@@ -42999,12 +43387,15 @@
         <v>120.0</v>
       </c>
       <c r="DC131" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="DD131" t="n">
         <v>120.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B132" t="n">
         <v>376.0</v>
@@ -43322,12 +43713,15 @@
         <v>1967.0</v>
       </c>
       <c r="DC132" t="n">
+        <v>1967.0</v>
+      </c>
+      <c r="DD132" t="n">
         <v>1967.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B133" t="n">
         <v>132.0</v>
@@ -43645,12 +44039,15 @@
         <v>1164.0</v>
       </c>
       <c r="DC133" t="n">
+        <v>1164.0</v>
+      </c>
+      <c r="DD133" t="n">
         <v>1164.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
@@ -43968,12 +44365,15 @@
         <v>16.0</v>
       </c>
       <c r="DC134" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="DD134" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B135" t="n">
         <v>4.0</v>
@@ -44291,12 +44691,15 @@
         <v>41.0</v>
       </c>
       <c r="DC135" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="DD135" t="n">
         <v>41.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B136" t="n">
         <v>78.0</v>
@@ -44614,12 +45017,15 @@
         <v>1856.0</v>
       </c>
       <c r="DC136" t="n">
+        <v>1856.0</v>
+      </c>
+      <c r="DD136" t="n">
         <v>1856.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B137" t="n">
         <v>11.0</v>
@@ -44937,12 +45343,15 @@
         <v>54.0</v>
       </c>
       <c r="DC137" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="DD137" t="n">
         <v>54.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
@@ -45260,12 +45669,15 @@
         <v>6.0</v>
       </c>
       <c r="DC138" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="DD138" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B139" t="n">
         <v>1.0</v>
@@ -45583,12 +45995,15 @@
         <v>9.0</v>
       </c>
       <c r="DC139" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="DD139" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B140" t="n">
         <v>11.0</v>
@@ -45906,12 +46321,15 @@
         <v>610.0</v>
       </c>
       <c r="DC140" t="n">
+        <v>612.0</v>
+      </c>
+      <c r="DD140" t="n">
         <v>612.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B141" t="n">
         <v>12.0</v>
@@ -46229,12 +46647,15 @@
         <v>76.0</v>
       </c>
       <c r="DC141" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="DD141" t="n">
         <v>76.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B142" t="n">
         <v>46.0</v>
@@ -46552,12 +46973,15 @@
         <v>2905.0</v>
       </c>
       <c r="DC142" t="n">
+        <v>2905.0</v>
+      </c>
+      <c r="DD142" t="n">
         <v>2905.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B143" t="n">
         <v>147.0</v>
@@ -46875,12 +47299,15 @@
         <v>430.0</v>
       </c>
       <c r="DC143" t="n">
+        <v>430.0</v>
+      </c>
+      <c r="DD143" t="n">
         <v>430.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B144" t="n">
         <v>37.0</v>
@@ -47198,12 +47625,15 @@
         <v>311.0</v>
       </c>
       <c r="DC144" t="n">
+        <v>311.0</v>
+      </c>
+      <c r="DD144" t="n">
         <v>311.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B145" t="n">
         <v>3.0</v>
@@ -47521,12 +47951,15 @@
         <v>191.0</v>
       </c>
       <c r="DC145" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="DD145" t="n">
         <v>191.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B146" t="n">
         <v>35.0</v>
@@ -47844,12 +48277,15 @@
         <v>351.0</v>
       </c>
       <c r="DC146" t="n">
+        <v>351.0</v>
+      </c>
+      <c r="DD146" t="n">
         <v>351.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B147" t="n">
         <v>160.0</v>
@@ -48167,12 +48603,15 @@
         <v>1006.0</v>
       </c>
       <c r="DC147" t="n">
+        <v>1006.0</v>
+      </c>
+      <c r="DD147" t="n">
         <v>1006.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B148" t="n">
         <v>58.0</v>
@@ -48490,12 +48929,15 @@
         <v>317.0</v>
       </c>
       <c r="DC148" t="n">
+        <v>317.0</v>
+      </c>
+      <c r="DD148" t="n">
         <v>317.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B149" t="n">
         <v>583.0</v>
@@ -48814,11 +49256,14 @@
       </c>
       <c r="DC149" t="n">
         <v>1440.0</v>
+      </c>
+      <c r="DD149" t="n">
+        <v>1442.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B150" t="n">
         <v>120.0</v>
@@ -49136,12 +49581,15 @@
         <v>543.0</v>
       </c>
       <c r="DC150" t="n">
+        <v>543.0</v>
+      </c>
+      <c r="DD150" t="n">
         <v>543.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B151" t="n">
         <v>6.0</v>
@@ -49459,12 +49907,15 @@
         <v>23.0</v>
       </c>
       <c r="DC151" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DD151" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B152" t="n">
         <v>60.0</v>
@@ -49782,12 +50233,15 @@
         <v>249.0</v>
       </c>
       <c r="DC152" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="DD152" t="n">
         <v>249.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B153" t="n">
         <v>9.0</v>
@@ -50105,12 +50559,15 @@
         <v>409.0</v>
       </c>
       <c r="DC153" t="n">
+        <v>409.0</v>
+      </c>
+      <c r="DD153" t="n">
         <v>409.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B154" t="n">
         <v>1.0</v>
@@ -50428,12 +50885,15 @@
         <v>0.0</v>
       </c>
       <c r="DC154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
@@ -50751,12 +51211,15 @@
         <v>0.0</v>
       </c>
       <c r="DC155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD155" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -51074,12 +51537,15 @@
         <v>0.0</v>
       </c>
       <c r="DC156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD156" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B157" t="n">
         <v>37.0</v>
@@ -51397,12 +51863,15 @@
         <v>145.0</v>
       </c>
       <c r="DC157" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="DD157" t="n">
         <v>144.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
@@ -51720,12 +52189,15 @@
         <v>0.0</v>
       </c>
       <c r="DC158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD158" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
@@ -52043,12 +52515,15 @@
         <v>19.0</v>
       </c>
       <c r="DC159" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DD159" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B160" t="n">
         <v>46.0</v>
@@ -52366,12 +52841,15 @@
         <v>212.0</v>
       </c>
       <c r="DC160" t="n">
+        <v>212.0</v>
+      </c>
+      <c r="DD160" t="n">
         <v>212.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B161" t="n">
         <v>13.0</v>
@@ -52690,11 +53168,14 @@
       </c>
       <c r="DC161" t="n">
         <v>172.0</v>
+      </c>
+      <c r="DD161" t="n">
+        <v>174.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B162" t="n">
         <v>58.0</v>
@@ -53012,12 +53493,15 @@
         <v>255.0</v>
       </c>
       <c r="DC162" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="DD162" t="n">
         <v>256.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B163" t="n">
         <v>11.0</v>
@@ -53336,11 +53820,14 @@
       </c>
       <c r="DC163" t="n">
         <v>141.0</v>
+      </c>
+      <c r="DD163" t="n">
+        <v>142.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B164" t="n">
         <v>49.0</v>
@@ -53658,12 +54145,15 @@
         <v>336.0</v>
       </c>
       <c r="DC164" t="n">
+        <v>341.0</v>
+      </c>
+      <c r="DD164" t="n">
         <v>341.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
@@ -53981,12 +54471,15 @@
         <v>0.0</v>
       </c>
       <c r="DC165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD165" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B166" t="n">
         <v>343.0</v>
@@ -54304,12 +54797,15 @@
         <v>969.0</v>
       </c>
       <c r="DC166" t="n">
+        <v>969.0</v>
+      </c>
+      <c r="DD166" t="n">
         <v>969.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B167" t="n">
         <v>6.0</v>
@@ -54627,12 +55123,15 @@
         <v>65.0</v>
       </c>
       <c r="DC167" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="DD167" t="n">
         <v>65.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
@@ -54950,12 +55449,15 @@
         <v>0.0</v>
       </c>
       <c r="DC168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD168" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B169" t="n">
         <v>111.0</v>
@@ -55273,12 +55775,15 @@
         <v>944.0</v>
       </c>
       <c r="DC169" t="n">
+        <v>944.0</v>
+      </c>
+      <c r="DD169" t="n">
         <v>944.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B170" t="n">
         <v>5.0</v>
@@ -55596,12 +56101,15 @@
         <v>52.0</v>
       </c>
       <c r="DC170" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="DD170" t="n">
         <v>52.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
@@ -55919,12 +56427,15 @@
         <v>0.0</v>
       </c>
       <c r="DC171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD171" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B172" t="n">
         <v>36.0</v>
@@ -56242,12 +56753,15 @@
         <v>290.0</v>
       </c>
       <c r="DC172" t="n">
+        <v>290.0</v>
+      </c>
+      <c r="DD172" t="n">
         <v>290.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B173" t="n">
         <v>865.0</v>
@@ -56565,12 +57079,15 @@
         <v>7524.0</v>
       </c>
       <c r="DC173" t="n">
+        <v>7524.0</v>
+      </c>
+      <c r="DD173" t="n">
         <v>7524.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B174" t="n">
         <v>159.0</v>
@@ -56888,12 +57405,15 @@
         <v>297.0</v>
       </c>
       <c r="DC174" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="DD174" t="n">
         <v>297.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B175" t="n">
         <v>58.0</v>
@@ -57211,12 +57731,15 @@
         <v>258.0</v>
       </c>
       <c r="DC175" t="n">
+        <v>259.0</v>
+      </c>
+      <c r="DD175" t="n">
         <v>259.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B176" t="n">
         <v>2.0</v>
@@ -57534,12 +58057,15 @@
         <v>49.0</v>
       </c>
       <c r="DC176" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="DD176" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B177" t="n">
         <v>299.0</v>
@@ -57858,11 +58384,14 @@
       </c>
       <c r="DC177" t="n">
         <v>895.0</v>
+      </c>
+      <c r="DD177" t="n">
+        <v>898.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B178" t="n">
         <v>529.0</v>
@@ -58180,12 +58709,15 @@
         <v>2130.0</v>
       </c>
       <c r="DC178" t="n">
+        <v>2130.0</v>
+      </c>
+      <c r="DD178" t="n">
         <v>2130.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B179" t="n">
         <v>95.0</v>
@@ -58503,12 +59035,15 @@
         <v>283.0</v>
       </c>
       <c r="DC179" t="n">
+        <v>283.0</v>
+      </c>
+      <c r="DD179" t="n">
         <v>283.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
@@ -58826,12 +59361,15 @@
         <v>0.0</v>
       </c>
       <c r="DC180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD180" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B181" t="n">
         <v>5083.0</v>
@@ -59150,11 +59688,14 @@
       </c>
       <c r="DC181" t="n">
         <v>9844.0</v>
+      </c>
+      <c r="DD181" t="n">
+        <v>9859.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B182" t="n">
         <v>15.0</v>
@@ -59472,12 +60013,15 @@
         <v>106.0</v>
       </c>
       <c r="DC182" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="DD182" t="n">
         <v>106.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B183" t="n">
         <v>7.0</v>
@@ -59795,12 +60339,15 @@
         <v>126.0</v>
       </c>
       <c r="DC183" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="DD183" t="n">
         <v>126.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B184" t="n">
         <v>541.0</v>
@@ -60118,12 +60665,15 @@
         <v>3506.0</v>
       </c>
       <c r="DC184" t="n">
+        <v>3506.0</v>
+      </c>
+      <c r="DD184" t="n">
         <v>3506.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B185" t="n">
         <v>76.0</v>
@@ -60441,12 +60991,15 @@
         <v>359.0</v>
       </c>
       <c r="DC185" t="n">
+        <v>359.0</v>
+      </c>
+      <c r="DD185" t="n">
         <v>359.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B186" t="n">
         <v>109.0</v>
@@ -60765,11 +61318,14 @@
       </c>
       <c r="DC186" t="n">
         <v>521.0</v>
+      </c>
+      <c r="DD186" t="n">
+        <v>522.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B187" t="n">
         <v>414.0</v>
@@ -61087,12 +61643,15 @@
         <v>2691.0</v>
       </c>
       <c r="DC187" t="n">
+        <v>2691.0</v>
+      </c>
+      <c r="DD187" t="n">
         <v>2691.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B188" t="n">
         <v>80.0</v>
@@ -61410,12 +61969,15 @@
         <v>333.0</v>
       </c>
       <c r="DC188" t="n">
+        <v>333.0</v>
+      </c>
+      <c r="DD188" t="n">
         <v>333.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B189" t="n">
         <v>66.0</v>
@@ -61734,11 +62296,14 @@
       </c>
       <c r="DC189" t="n">
         <v>274.0</v>
+      </c>
+      <c r="DD189" t="n">
+        <v>275.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B190" t="n">
         <v>380.0</v>
@@ -62056,12 +62621,15 @@
         <v>1525.0</v>
       </c>
       <c r="DC190" t="n">
+        <v>1525.0</v>
+      </c>
+      <c r="DD190" t="n">
         <v>1525.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
@@ -62379,12 +62947,15 @@
         <v>0.0</v>
       </c>
       <c r="DC191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD191" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B192" t="n">
         <v>14.0</v>
@@ -62703,11 +63274,14 @@
       </c>
       <c r="DC192" t="n">
         <v>160.0</v>
+      </c>
+      <c r="DD192" t="n">
+        <v>162.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B193" t="n">
         <v>70.0</v>
@@ -63025,12 +63599,15 @@
         <v>364.0</v>
       </c>
       <c r="DC193" t="n">
+        <v>365.0</v>
+      </c>
+      <c r="DD193" t="n">
         <v>365.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
@@ -63348,12 +63925,15 @@
         <v>0.0</v>
       </c>
       <c r="DC194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD194" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B195" t="n">
         <v>39.0</v>
@@ -63671,12 +64251,15 @@
         <v>172.0</v>
       </c>
       <c r="DC195" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="DD195" t="n">
         <v>172.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
@@ -63994,12 +64577,15 @@
         <v>28.0</v>
       </c>
       <c r="DC196" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="DD196" t="n">
         <v>28.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B197" t="n">
         <v>39.0</v>
@@ -64317,12 +64903,15 @@
         <v>248.0</v>
       </c>
       <c r="DC197" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="DD197" t="n">
         <v>248.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B198" t="n">
         <v>299.0</v>
@@ -64640,12 +65229,15 @@
         <v>706.0</v>
       </c>
       <c r="DC198" t="n">
+        <v>707.0</v>
+      </c>
+      <c r="DD198" t="n">
         <v>707.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B199" t="n">
         <v>3.0</v>
@@ -64963,12 +65555,15 @@
         <v>55.0</v>
       </c>
       <c r="DC199" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="DD199" t="n">
         <v>58.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B200" t="n">
         <v>1.0</v>
@@ -65286,12 +65881,15 @@
         <v>3.0</v>
       </c>
       <c r="DC200" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DD200" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B201" t="n">
         <v>60.0</v>
@@ -65609,12 +66207,15 @@
         <v>394.0</v>
       </c>
       <c r="DC201" t="n">
+        <v>394.0</v>
+      </c>
+      <c r="DD201" t="n">
         <v>394.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B202" t="n">
         <v>326.0</v>
@@ -65932,12 +66533,15 @@
         <v>1751.0</v>
       </c>
       <c r="DC202" t="n">
+        <v>1751.0</v>
+      </c>
+      <c r="DD202" t="n">
         <v>1751.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B203" t="n">
         <v>77.0</v>
@@ -66255,12 +66859,15 @@
         <v>476.0</v>
       </c>
       <c r="DC203" t="n">
+        <v>476.0</v>
+      </c>
+      <c r="DD203" t="n">
         <v>476.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B204" t="n">
         <v>307.0</v>
@@ -66579,11 +67186,14 @@
       </c>
       <c r="DC204" t="n">
         <v>1570.0</v>
+      </c>
+      <c r="DD204" t="n">
+        <v>1575.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B205" t="n">
         <v>86.0</v>
@@ -66901,12 +67511,15 @@
         <v>322.0</v>
       </c>
       <c r="DC205" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="DD205" t="n">
         <v>322.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B206" t="n">
         <v>58.0</v>
@@ -67224,12 +67837,15 @@
         <v>202.0</v>
       </c>
       <c r="DC206" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="DD206" t="n">
         <v>202.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B207" t="n">
         <v>49.0</v>
@@ -67548,11 +68164,14 @@
       </c>
       <c r="DC207" t="n">
         <v>251.0</v>
+      </c>
+      <c r="DD207" t="n">
+        <v>254.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
@@ -67870,12 +68489,15 @@
         <v>935.0</v>
       </c>
       <c r="DC208" t="n">
+        <v>943.0</v>
+      </c>
+      <c r="DD208" t="n">
         <v>943.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B209" t="n">
         <v>14.0</v>
@@ -68193,12 +68815,15 @@
         <v>233.0</v>
       </c>
       <c r="DC209" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="DD209" t="n">
         <v>233.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B210" t="n">
         <v>20.0</v>
@@ -68517,11 +69142,14 @@
       </c>
       <c r="DC210" t="n">
         <v>108.0</v>
+      </c>
+      <c r="DD210" t="n">
+        <v>109.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
@@ -68839,12 +69467,15 @@
         <v>0.0</v>
       </c>
       <c r="DC211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD211" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B212" t="n">
         <v>41.0</v>
@@ -69162,12 +69793,15 @@
         <v>119.0</v>
       </c>
       <c r="DC212" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="DD212" t="n">
         <v>119.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B213" t="n">
         <v>182.0</v>
@@ -69486,11 +70120,14 @@
       </c>
       <c r="DC213" t="n">
         <v>641.0</v>
+      </c>
+      <c r="DD213" t="n">
+        <v>646.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B214" t="n">
         <v>5.0</v>
@@ -69808,12 +70445,15 @@
         <v>23.0</v>
       </c>
       <c r="DC214" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DD214" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B215" t="n">
         <v>2052.0</v>
@@ -70131,12 +70771,15 @@
         <v>7618.0</v>
       </c>
       <c r="DC215" t="n">
+        <v>7669.0</v>
+      </c>
+      <c r="DD215" t="n">
         <v>7669.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B216" t="n">
         <v>59.0</v>
@@ -70454,12 +71097,15 @@
         <v>452.0</v>
       </c>
       <c r="DC216" t="n">
+        <v>452.0</v>
+      </c>
+      <c r="DD216" t="n">
         <v>452.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B217" t="n">
         <v>37.0</v>
@@ -70777,12 +71423,15 @@
         <v>1717.0</v>
       </c>
       <c r="DC217" t="n">
+        <v>1724.0</v>
+      </c>
+      <c r="DD217" t="n">
         <v>1724.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B218" t="n">
         <v>77.0</v>
@@ -71100,12 +71749,15 @@
         <v>321.0</v>
       </c>
       <c r="DC218" t="n">
+        <v>321.0</v>
+      </c>
+      <c r="DD218" t="n">
         <v>321.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B219" t="n">
         <v>1.0</v>
@@ -71423,12 +72075,15 @@
         <v>57.0</v>
       </c>
       <c r="DC219" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="DD219" t="n">
         <v>56.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B220" t="n">
         <v>10.0</v>
@@ -71746,12 +72401,15 @@
         <v>101.0</v>
       </c>
       <c r="DC220" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="DD220" t="n">
         <v>101.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B221" t="n">
         <v>19.0</v>
@@ -72069,12 +72727,15 @@
         <v>190.0</v>
       </c>
       <c r="DC221" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="DD221" t="n">
         <v>191.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B222" t="n">
         <v>69.0</v>
@@ -72392,12 +73053,15 @@
         <v>354.0</v>
       </c>
       <c r="DC222" t="n">
+        <v>354.0</v>
+      </c>
+      <c r="DD222" t="n">
         <v>354.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B223" t="n">
         <v>6705.0</v>
@@ -72716,11 +73380,14 @@
       </c>
       <c r="DC223" t="n">
         <v>34246.0</v>
+      </c>
+      <c r="DD223" t="n">
+        <v>34412.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B224" t="n">
         <v>2484.0</v>
@@ -73039,11 +73706,14 @@
       </c>
       <c r="DC224" t="n">
         <v>8019.0</v>
+      </c>
+      <c r="DD224" t="n">
+        <v>8027.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B225" t="n">
         <v>1.0</v>
@@ -73361,12 +74031,15 @@
         <v>11.0</v>
       </c>
       <c r="DC225" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="DD225" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
@@ -73684,12 +74357,15 @@
         <v>0.0</v>
       </c>
       <c r="DC226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD226" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B227" t="n">
         <v>10.0</v>
@@ -74007,12 +74683,15 @@
         <v>23.0</v>
       </c>
       <c r="DC227" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DD227" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B228" t="n">
         <v>138.0</v>
@@ -74330,12 +75009,15 @@
         <v>925.0</v>
       </c>
       <c r="DC228" t="n">
+        <v>927.0</v>
+      </c>
+      <c r="DD228" t="n">
         <v>927.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B229" t="n">
         <v>1242.0</v>
@@ -74653,12 +75335,15 @@
         <v>7928.0</v>
       </c>
       <c r="DC229" t="n">
+        <v>7928.0</v>
+      </c>
+      <c r="DD229" t="n">
         <v>7928.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
@@ -74976,12 +75661,15 @@
         <v>0.0</v>
       </c>
       <c r="DC230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD230" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B231" t="n">
         <v>21.0</v>
@@ -75299,12 +75987,15 @@
         <v>178.0</v>
       </c>
       <c r="DC231" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="DD231" t="n">
         <v>180.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B232" t="n">
         <v>129.0</v>
@@ -75622,12 +76313,15 @@
         <v>640.0</v>
       </c>
       <c r="DC232" t="n">
+        <v>640.0</v>
+      </c>
+      <c r="DD232" t="n">
         <v>640.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B233" t="n">
         <v>291.0</v>
@@ -75946,11 +76640,14 @@
       </c>
       <c r="DC233" t="n">
         <v>1827.0</v>
+      </c>
+      <c r="DD233" t="n">
+        <v>1830.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B234" t="n">
         <v>51.0</v>
@@ -76268,12 +76965,15 @@
         <v>290.0</v>
       </c>
       <c r="DC234" t="n">
+        <v>293.0</v>
+      </c>
+      <c r="DD234" t="n">
         <v>293.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B235" t="n">
         <v>35.0</v>
@@ -76591,12 +77291,15 @@
         <v>107.0</v>
       </c>
       <c r="DC235" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="DD235" t="n">
         <v>107.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
@@ -76914,12 +77617,15 @@
         <v>0.0</v>
       </c>
       <c r="DC236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD236" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B237" t="n">
         <v>247.0</v>
@@ -77237,12 +77943,15 @@
         <v>1419.0</v>
       </c>
       <c r="DC237" t="n">
+        <v>1435.0</v>
+      </c>
+      <c r="DD237" t="n">
         <v>1435.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B238" t="n">
         <v>9.0</v>
@@ -77560,12 +78269,15 @@
         <v>9.0</v>
       </c>
       <c r="DC238" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="DD238" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B239" t="n">
         <v>170.0</v>
@@ -77884,11 +78596,14 @@
       </c>
       <c r="DC239" t="n">
         <v>780.0</v>
+      </c>
+      <c r="DD239" t="n">
+        <v>785.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B240" t="n">
         <v>88.0</v>
@@ -78207,11 +78922,14 @@
       </c>
       <c r="DC240" t="n">
         <v>379.0</v>
+      </c>
+      <c r="DD240" t="n">
+        <v>382.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B241" t="n">
         <v>83.0</v>
@@ -78529,12 +79247,15 @@
         <v>455.0</v>
       </c>
       <c r="DC241" t="n">
+        <v>455.0</v>
+      </c>
+      <c r="DD241" t="n">
         <v>455.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B242" t="n">
         <v>62.0</v>
@@ -78852,12 +79573,15 @@
         <v>614.0</v>
       </c>
       <c r="DC242" t="n">
+        <v>613.0</v>
+      </c>
+      <c r="DD242" t="n">
         <v>613.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
@@ -79175,12 +79899,15 @@
         <v>0.0</v>
       </c>
       <c r="DC243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD243" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B244" t="n">
         <v>127.0</v>
@@ -79499,11 +80226,14 @@
       </c>
       <c r="DC244" t="n">
         <v>369.0</v>
+      </c>
+      <c r="DD244" t="n">
+        <v>371.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B245" t="n">
         <v>2.0</v>
@@ -79821,12 +80551,15 @@
         <v>46.0</v>
       </c>
       <c r="DC245" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="DD245" t="n">
         <v>46.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
@@ -80144,12 +80877,15 @@
         <v>0.0</v>
       </c>
       <c r="DC246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD246" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B247" t="n">
         <v>46.0</v>
@@ -80467,12 +81203,15 @@
         <v>276.0</v>
       </c>
       <c r="DC247" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="DD247" t="n">
         <v>276.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
@@ -80790,12 +81529,15 @@
         <v>222.0</v>
       </c>
       <c r="DC248" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="DD248" t="n">
         <v>223.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B249" t="n">
         <v>188.0</v>
@@ -81113,12 +81855,15 @@
         <v>5059.0</v>
       </c>
       <c r="DC249" t="n">
+        <v>5059.0</v>
+      </c>
+      <c r="DD249" t="n">
         <v>5059.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B250" t="n">
         <v>86.0</v>
@@ -81436,12 +82181,15 @@
         <v>787.0</v>
       </c>
       <c r="DC250" t="n">
+        <v>787.0</v>
+      </c>
+      <c r="DD250" t="n">
         <v>787.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B251" t="n">
         <v>50.0</v>
@@ -81759,12 +82507,15 @@
         <v>181.0</v>
       </c>
       <c r="DC251" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="DD251" t="n">
         <v>181.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B252" t="n">
         <v>122.0</v>
@@ -82082,12 +82833,15 @@
         <v>1054.0</v>
       </c>
       <c r="DC252" t="n">
+        <v>1054.0</v>
+      </c>
+      <c r="DD252" t="n">
         <v>1054.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B253" t="n">
         <v>235.0</v>
@@ -82405,12 +83159,15 @@
         <v>1313.0</v>
       </c>
       <c r="DC253" t="n">
+        <v>1326.0</v>
+      </c>
+      <c r="DD253" t="n">
         <v>1326.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
@@ -82728,12 +83485,15 @@
         <v>0.0</v>
       </c>
       <c r="DC254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DD254" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B255" t="n">
         <v>41.0</v>
@@ -83051,12 +83811,15 @@
         <v>212.0</v>
       </c>
       <c r="DC255" t="n">
+        <v>212.0</v>
+      </c>
+      <c r="DD255" t="n">
         <v>212.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B256" t="n">
         <v>2.0</v>
@@ -83374,12 +84137,15 @@
         <v>194.0</v>
       </c>
       <c r="DC256" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="DD256" t="n">
         <v>196.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B257" t="n">
         <v>11.0</v>
@@ -83697,6 +84463,9 @@
         <v>174.0</v>
       </c>
       <c r="DC257" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="DD257" t="n">
         <v>174.0</v>
       </c>
     </row>
